--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB348A18-ABE8-4793-B1CA-458FA214802F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +489,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,6 +591,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -610,6 +643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,17 +835,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="90.625" customWidth="1"/>
+    <col min="2" max="2" width="99.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -806,11 +856,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -828,11 +878,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -844,11 +894,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -860,17 +910,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -890,11 +940,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -922,19 +972,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -961,57 +1011,57 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1031,11 +1081,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1047,19 +1097,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1079,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1093,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB348A18-ABE8-4793-B1CA-458FA214802F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959581D-0CCF-41FC-8CB2-EF0385A62F99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -870,11 +870,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959581D-0CCF-41FC-8CB2-EF0385A62F99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49B964-C08C-4C00-A0B2-E6986BA62C88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>所在地按照_____省_____市_____县（区）____________街道（社区）格式填写 其中省市县选择标准名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -886,11 +886,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49B964-C08C-4C00-A0B2-E6986BA62C88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDD3DE-DF2E-4C6D-821E-DCCE5C6F662E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="37">
   <si>
     <t>所在地按照_____省_____市_____县（区）____________街道（社区）格式填写 其中省市县选择标准名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,11 +902,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -924,11 +924,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BDD3DE-DF2E-4C6D-821E-DCCE5C6F662E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE0340-98A9-40FD-8426-B33F6DCBDBD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>所在地按照_____省_____市_____县（区）____________街道（社区）格式填写 其中省市县选择标准名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,11 +932,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -948,19 +948,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE0340-98A9-40FD-8426-B33F6DCBDBD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C0202-DFEC-43DA-A0C3-C5E5A06CC0A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,11 +964,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -988,11 +988,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C0202-DFEC-43DA-A0C3-C5E5A06CC0A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87FADF-80C2-4456-A9DD-C988D471EA8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,11 +1089,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87FADF-80C2-4456-A9DD-C988D471EA8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179E979-75AD-4E23-A20C-8578284DD0A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1113,11 +1113,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/doc/v20181125/修改内容f返稿1-list.xlsx
+++ b/doc/v20181125/修改内容f返稿1-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A179E979-75AD-4E23-A20C-8578284DD0A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8346EA-6922-4D49-8AE5-6A06AE3B24B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>所在地按照_____省_____市_____县（区）____________街道（社区）格式填写 其中省市县选择标准名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>“基本信息”提交以后还停留在原界面，需要手动返回，是不是可以给个“提交成功”之类的界面或者给个反馈结果？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选没法弄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,17 +478,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -497,6 +492,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,7 +840,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,268 +857,271 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>21</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>22</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
         <v>23</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
         <v>24</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
         <v>25</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
         <v>26</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
+    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
         <v>29</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
     </row>
